--- a/natmiOut/OldD2/LR-pairs_lrc2p/Angptl2-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Angptl2-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.7365653418386</v>
+        <v>1.736858</v>
       </c>
       <c r="H2">
-        <v>1.7365653418386</v>
+        <v>3.473716</v>
       </c>
       <c r="I2">
-        <v>0.02029239934284747</v>
+        <v>0.01904277991942104</v>
       </c>
       <c r="J2">
-        <v>0.02029239934284747</v>
+        <v>0.01461981882753793</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>285.7902726886034</v>
+        <v>285.847348886089</v>
       </c>
       <c r="R2">
-        <v>285.7902726886034</v>
+        <v>1143.389395544356</v>
       </c>
       <c r="S2">
-        <v>0.004807860208944521</v>
+        <v>0.004419382614850547</v>
       </c>
       <c r="T2">
-        <v>0.004807860208944521</v>
+        <v>0.002639751606678615</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.7365653418386</v>
+        <v>1.736858</v>
       </c>
       <c r="H3">
-        <v>1.7365653418386</v>
+        <v>3.473716</v>
       </c>
       <c r="I3">
-        <v>0.02029239934284747</v>
+        <v>0.01904277991942104</v>
       </c>
       <c r="J3">
-        <v>0.02029239934284747</v>
+        <v>0.01461981882753793</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>193.4035082541533</v>
+        <v>206.276773201424</v>
       </c>
       <c r="R3">
-        <v>193.4035082541533</v>
+        <v>1237.660639208544</v>
       </c>
       <c r="S3">
-        <v>0.003253634292230049</v>
+        <v>0.003189170684584953</v>
       </c>
       <c r="T3">
-        <v>0.003253634292230049</v>
+        <v>0.00285739632849944</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.7365653418386</v>
+        <v>1.736858</v>
       </c>
       <c r="H4">
-        <v>1.7365653418386</v>
+        <v>3.473716</v>
       </c>
       <c r="I4">
-        <v>0.02029239934284747</v>
+        <v>0.01904277991942104</v>
       </c>
       <c r="J4">
-        <v>0.02029239934284747</v>
+        <v>0.01461981882753793</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>145.9090870433854</v>
+        <v>146.820005771106</v>
       </c>
       <c r="R4">
-        <v>145.9090870433854</v>
+        <v>880.9200346266359</v>
       </c>
       <c r="S4">
-        <v>0.002454633907304746</v>
+        <v>0.002269931078757889</v>
       </c>
       <c r="T4">
-        <v>0.002454633907304746</v>
+        <v>0.002033786639812188</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.7365653418386</v>
+        <v>1.736858</v>
       </c>
       <c r="H5">
-        <v>1.7365653418386</v>
+        <v>3.473716</v>
       </c>
       <c r="I5">
-        <v>0.02029239934284747</v>
+        <v>0.01904277991942104</v>
       </c>
       <c r="J5">
-        <v>0.02029239934284747</v>
+        <v>0.01461981882753793</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>137.1909153216245</v>
+        <v>138.3159055253633</v>
       </c>
       <c r="R5">
-        <v>137.1909153216245</v>
+        <v>829.8954331521799</v>
       </c>
       <c r="S5">
-        <v>0.002307967785601329</v>
+        <v>0.002138452256486362</v>
       </c>
       <c r="T5">
-        <v>0.002307967785601329</v>
+        <v>0.001915985762659391</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.7365653418386</v>
+        <v>1.736858</v>
       </c>
       <c r="H6">
-        <v>1.7365653418386</v>
+        <v>3.473716</v>
       </c>
       <c r="I6">
-        <v>0.02029239934284747</v>
+        <v>0.01904277991942104</v>
       </c>
       <c r="J6">
-        <v>0.02029239934284747</v>
+        <v>0.01461981882753793</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>201.571400036411</v>
+        <v>211.433428181672</v>
       </c>
       <c r="R6">
-        <v>201.571400036411</v>
+        <v>1268.600569090032</v>
       </c>
       <c r="S6">
-        <v>0.00339104303438717</v>
+        <v>0.003268895864682992</v>
       </c>
       <c r="T6">
-        <v>0.00339104303438717</v>
+        <v>0.002928827574873994</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.7365653418386</v>
+        <v>1.736858</v>
       </c>
       <c r="H7">
-        <v>1.7365653418386</v>
+        <v>3.473716</v>
       </c>
       <c r="I7">
-        <v>0.02029239934284747</v>
+        <v>0.01904277991942104</v>
       </c>
       <c r="J7">
-        <v>0.02029239934284747</v>
+        <v>0.01461981882753793</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>242.3617221114536</v>
+        <v>243.000788462941</v>
       </c>
       <c r="R7">
-        <v>242.3617221114536</v>
+        <v>972.0031538517638</v>
       </c>
       <c r="S7">
-        <v>0.004077260114379653</v>
+        <v>0.0037569474200583</v>
       </c>
       <c r="T7">
-        <v>0.004077260114379653</v>
+        <v>0.002244070915014305</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>40.3891946742618</v>
+        <v>43.378693</v>
       </c>
       <c r="H8">
-        <v>40.3891946742618</v>
+        <v>130.136079</v>
       </c>
       <c r="I8">
-        <v>0.4719624696634672</v>
+        <v>0.4756007134671516</v>
       </c>
       <c r="J8">
-        <v>0.4719624696634672</v>
+        <v>0.5477033522332176</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>6646.936156982905</v>
+        <v>7139.146891797456</v>
       </c>
       <c r="R8">
-        <v>6646.936156982905</v>
+        <v>42834.88135078474</v>
       </c>
       <c r="S8">
-        <v>0.1118216500509575</v>
+        <v>0.1103757714788078</v>
       </c>
       <c r="T8">
-        <v>0.1118216500509575</v>
+        <v>0.09889320935479622</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>40.3891946742618</v>
+        <v>43.378693</v>
       </c>
       <c r="H9">
-        <v>40.3891946742618</v>
+        <v>130.136079</v>
       </c>
       <c r="I9">
-        <v>0.4719624696634672</v>
+        <v>0.4756007134671516</v>
       </c>
       <c r="J9">
-        <v>0.4719624696634672</v>
+        <v>0.5477033522332176</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>4498.19638649002</v>
+        <v>5151.841323663303</v>
       </c>
       <c r="R9">
-        <v>4498.19638649002</v>
+        <v>46366.57191296973</v>
       </c>
       <c r="S9">
-        <v>0.07567332231138535</v>
+        <v>0.07965075789224593</v>
       </c>
       <c r="T9">
-        <v>0.07567332231138535</v>
+        <v>0.1070468496388055</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>40.3891946742618</v>
+        <v>43.378693</v>
       </c>
       <c r="H10">
-        <v>40.3891946742618</v>
+        <v>130.136079</v>
       </c>
       <c r="I10">
-        <v>0.4719624696634672</v>
+        <v>0.4756007134671516</v>
       </c>
       <c r="J10">
-        <v>0.4719624696634672</v>
+        <v>0.5477033522332176</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>3393.566817992401</v>
+        <v>3666.885811392201</v>
       </c>
       <c r="R10">
-        <v>3393.566817992401</v>
+        <v>33001.97230252981</v>
       </c>
       <c r="S10">
-        <v>0.05709009868365185</v>
+        <v>0.05669239707367978</v>
       </c>
       <c r="T10">
-        <v>0.05709009868365185</v>
+        <v>0.07619189905788021</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>40.3891946742618</v>
+        <v>43.378693</v>
       </c>
       <c r="H11">
-        <v>40.3891946742618</v>
+        <v>130.136079</v>
       </c>
       <c r="I11">
-        <v>0.4719624696634672</v>
+        <v>0.4756007134671516</v>
       </c>
       <c r="J11">
-        <v>0.4719624696634672</v>
+        <v>0.5477033522332176</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>3190.798787103891</v>
+        <v>3454.492654437921</v>
       </c>
       <c r="R11">
-        <v>3190.798787103891</v>
+        <v>31090.43388994129</v>
       </c>
       <c r="S11">
-        <v>0.05367892468467839</v>
+        <v>0.05340866318909154</v>
       </c>
       <c r="T11">
-        <v>0.05367892468467839</v>
+        <v>0.07177871609893204</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>40.3891946742618</v>
+        <v>43.378693</v>
       </c>
       <c r="H12">
-        <v>40.3891946742618</v>
+        <v>130.136079</v>
       </c>
       <c r="I12">
-        <v>0.4719624696634672</v>
+        <v>0.4756007134671516</v>
       </c>
       <c r="J12">
-        <v>0.4719624696634672</v>
+        <v>0.5477033522332176</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>4688.165956493433</v>
+        <v>5280.630754517812</v>
       </c>
       <c r="R12">
-        <v>4688.165956493433</v>
+        <v>47525.6767906603</v>
       </c>
       <c r="S12">
-        <v>0.07886918733484223</v>
+        <v>0.08164192476474937</v>
       </c>
       <c r="T12">
-        <v>0.07886918733484223</v>
+        <v>0.1097228836960709</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>40.3891946742618</v>
+        <v>43.378693</v>
       </c>
       <c r="H13">
-        <v>40.3891946742618</v>
+        <v>130.136079</v>
       </c>
       <c r="I13">
-        <v>0.4719624696634672</v>
+        <v>0.4756007134671516</v>
       </c>
       <c r="J13">
-        <v>0.4719624696634672</v>
+        <v>0.5477033522332176</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N13">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O13">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P13">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q13">
-        <v>5636.870977503725</v>
+        <v>6069.037653908298</v>
       </c>
       <c r="R13">
-        <v>5636.870977503725</v>
+        <v>36414.22592344979</v>
       </c>
       <c r="S13">
-        <v>0.0948292865979518</v>
+        <v>0.0938311990685773</v>
       </c>
       <c r="T13">
-        <v>0.0948292865979518</v>
+        <v>0.08406979438673279</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.25381642593885</v>
+        <v>4.494369666666667</v>
       </c>
       <c r="H14">
-        <v>4.25381642593885</v>
+        <v>13.483109</v>
       </c>
       <c r="I14">
-        <v>0.04970739629925084</v>
+        <v>0.04927592954568251</v>
       </c>
       <c r="J14">
-        <v>0.04970739629925084</v>
+        <v>0.05674632319163286</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N14">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O14">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P14">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q14">
-        <v>700.0596678090986</v>
+        <v>739.6710923579948</v>
       </c>
       <c r="R14">
-        <v>700.0596678090986</v>
+        <v>4438.026554147968</v>
       </c>
       <c r="S14">
-        <v>0.01177712939311144</v>
+        <v>0.01143578759436771</v>
       </c>
       <c r="T14">
-        <v>0.01177712939311144</v>
+        <v>0.01024610493367129</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.25381642593885</v>
+        <v>4.494369666666667</v>
       </c>
       <c r="H15">
-        <v>4.25381642593885</v>
+        <v>13.483109</v>
       </c>
       <c r="I15">
-        <v>0.04970739629925084</v>
+        <v>0.04927592954568251</v>
       </c>
       <c r="J15">
-        <v>0.04970739629925084</v>
+        <v>0.05674632319163286</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P15">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q15">
-        <v>473.7529883987406</v>
+        <v>533.7707932452506</v>
       </c>
       <c r="R15">
-        <v>473.7529883987406</v>
+        <v>4803.937139207255</v>
       </c>
       <c r="S15">
-        <v>0.007969963849233874</v>
+        <v>0.008252437439687746</v>
       </c>
       <c r="T15">
-        <v>0.007969963849233874</v>
+        <v>0.01109088542453032</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.25381642593885</v>
+        <v>4.494369666666667</v>
       </c>
       <c r="H16">
-        <v>4.25381642593885</v>
+        <v>13.483109</v>
       </c>
       <c r="I16">
-        <v>0.04970739629925084</v>
+        <v>0.04927592954568251</v>
       </c>
       <c r="J16">
-        <v>0.04970739629925084</v>
+        <v>0.05674632319163286</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N16">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O16">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P16">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q16">
-        <v>357.4126790425032</v>
+        <v>379.917863404771</v>
       </c>
       <c r="R16">
-        <v>357.4126790425032</v>
+        <v>3419.260770642939</v>
       </c>
       <c r="S16">
-        <v>0.00601276657030614</v>
+        <v>0.005873772862141524</v>
       </c>
       <c r="T16">
-        <v>0.00601276657030614</v>
+        <v>0.007894072787565669</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.25381642593885</v>
+        <v>4.494369666666667</v>
       </c>
       <c r="H17">
-        <v>4.25381642593885</v>
+        <v>13.483109</v>
       </c>
       <c r="I17">
-        <v>0.04970739629925084</v>
+        <v>0.04927592954568251</v>
       </c>
       <c r="J17">
-        <v>0.04970739629925084</v>
+        <v>0.05674632319163286</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N17">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O17">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P17">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q17">
-        <v>336.0570172768955</v>
+        <v>357.9122819543828</v>
       </c>
       <c r="R17">
-        <v>336.0570172768955</v>
+        <v>3221.210537589445</v>
       </c>
       <c r="S17">
-        <v>0.005653499491435273</v>
+        <v>0.005533552515615664</v>
       </c>
       <c r="T17">
-        <v>0.005653499491435273</v>
+        <v>0.007436832740611121</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.25381642593885</v>
+        <v>4.494369666666667</v>
       </c>
       <c r="H18">
-        <v>4.25381642593885</v>
+        <v>13.483109</v>
       </c>
       <c r="I18">
-        <v>0.04970739629925084</v>
+        <v>0.04927592954568251</v>
       </c>
       <c r="J18">
-        <v>0.04970739629925084</v>
+        <v>0.05674632319163286</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N18">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O18">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P18">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q18">
-        <v>493.7607078847649</v>
+        <v>547.1143790333185</v>
       </c>
       <c r="R18">
-        <v>493.7607078847649</v>
+        <v>4924.029411299867</v>
       </c>
       <c r="S18">
-        <v>0.008306554445840336</v>
+        <v>0.008458737799937211</v>
       </c>
       <c r="T18">
-        <v>0.008306554445840336</v>
+        <v>0.01136814334684578</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.25381642593885</v>
+        <v>4.494369666666667</v>
       </c>
       <c r="H19">
-        <v>4.25381642593885</v>
+        <v>13.483109</v>
       </c>
       <c r="I19">
-        <v>0.04970739629925084</v>
+        <v>0.04927592954568251</v>
       </c>
       <c r="J19">
-        <v>0.04970739629925084</v>
+        <v>0.05674632319163286</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N19">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O19">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P19">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q19">
-        <v>593.678941815682</v>
+        <v>628.7994600847768</v>
       </c>
       <c r="R19">
-        <v>593.678941815682</v>
+        <v>3772.796760508661</v>
       </c>
       <c r="S19">
-        <v>0.009987482549323768</v>
+        <v>0.009721641333932662</v>
       </c>
       <c r="T19">
-        <v>0.009987482549323768</v>
+        <v>0.008710283958408692</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.05869850537856</v>
+        <v>3.071414666666667</v>
       </c>
       <c r="H20">
-        <v>3.05869850537856</v>
+        <v>9.214244000000001</v>
       </c>
       <c r="I20">
-        <v>0.03574200753931734</v>
+        <v>0.0336747584077773</v>
       </c>
       <c r="J20">
-        <v>0.03574200753931734</v>
+        <v>0.03877996298854842</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N20">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O20">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P20">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q20">
-        <v>503.3765553554433</v>
+        <v>505.4850424136674</v>
       </c>
       <c r="R20">
-        <v>503.3765553554433</v>
+        <v>3032.910254482004</v>
       </c>
       <c r="S20">
-        <v>0.008468322199496277</v>
+        <v>0.007815121662717191</v>
       </c>
       <c r="T20">
-        <v>0.008468322199496277</v>
+        <v>0.007002102475656847</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.05869850537856</v>
+        <v>3.071414666666667</v>
       </c>
       <c r="H21">
-        <v>3.05869850537856</v>
+        <v>9.214244000000001</v>
       </c>
       <c r="I21">
-        <v>0.03574200753931734</v>
+        <v>0.0336747584077773</v>
       </c>
       <c r="J21">
-        <v>0.03574200753931734</v>
+        <v>0.03877996298854842</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P21">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q21">
-        <v>340.6511735433044</v>
+        <v>364.7744988960107</v>
       </c>
       <c r="R21">
-        <v>340.6511735433044</v>
+        <v>3282.970490064096</v>
       </c>
       <c r="S21">
-        <v>0.005730787150315838</v>
+        <v>0.005639646773160269</v>
       </c>
       <c r="T21">
-        <v>0.005730787150315838</v>
+        <v>0.007579418402511315</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.05869850537856</v>
+        <v>3.071414666666667</v>
       </c>
       <c r="H22">
-        <v>3.05869850537856</v>
+        <v>9.214244000000001</v>
       </c>
       <c r="I22">
-        <v>0.03574200753931734</v>
+        <v>0.0336747584077773</v>
       </c>
       <c r="J22">
-        <v>0.03574200753931734</v>
+        <v>0.03877996298854842</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N22">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O22">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P22">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q22">
-        <v>256.9968982498745</v>
+        <v>259.632692531836</v>
       </c>
       <c r="R22">
-        <v>256.9968982498745</v>
+        <v>2336.694232786524</v>
       </c>
       <c r="S22">
-        <v>0.004323468217772579</v>
+        <v>0.004014087281527604</v>
       </c>
       <c r="T22">
-        <v>0.004323468217772579</v>
+        <v>0.005394743365079245</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.05869850537856</v>
+        <v>3.071414666666667</v>
       </c>
       <c r="H23">
-        <v>3.05869850537856</v>
+        <v>9.214244000000001</v>
       </c>
       <c r="I23">
-        <v>0.03574200753931734</v>
+        <v>0.0336747584077773</v>
       </c>
       <c r="J23">
-        <v>0.03574200753931734</v>
+        <v>0.03877996298854842</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N23">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O23">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P23">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q23">
-        <v>241.6411508025884</v>
+        <v>244.5942620892911</v>
       </c>
       <c r="R23">
-        <v>241.6411508025884</v>
+        <v>2201.34835880362</v>
       </c>
       <c r="S23">
-        <v>0.004065137916898933</v>
+        <v>0.003781583540242577</v>
       </c>
       <c r="T23">
-        <v>0.004065137916898933</v>
+        <v>0.005082269338561276</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.05869850537856</v>
+        <v>3.071414666666667</v>
       </c>
       <c r="H24">
-        <v>3.05869850537856</v>
+        <v>9.214244000000001</v>
       </c>
       <c r="I24">
-        <v>0.03574200753931734</v>
+        <v>0.0336747584077773</v>
       </c>
       <c r="J24">
-        <v>0.03574200753931734</v>
+        <v>0.03877996298854842</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N24">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O24">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P24">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q24">
-        <v>355.0376856914936</v>
+        <v>373.8933938990987</v>
       </c>
       <c r="R24">
-        <v>355.0376856914936</v>
+        <v>3365.040545091888</v>
       </c>
       <c r="S24">
-        <v>0.005972811970307321</v>
+        <v>0.005780630715115086</v>
       </c>
       <c r="T24">
-        <v>0.005972811970307321</v>
+        <v>0.007768894149325177</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.05869850537856</v>
+        <v>3.071414666666667</v>
       </c>
       <c r="H25">
-        <v>3.05869850537856</v>
+        <v>9.214244000000001</v>
       </c>
       <c r="I25">
-        <v>0.03574200753931734</v>
+        <v>0.0336747584077773</v>
       </c>
       <c r="J25">
-        <v>0.03574200753931734</v>
+        <v>0.03877996298854842</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N25">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O25">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P25">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q25">
-        <v>426.8836992902372</v>
+        <v>429.7162955731794</v>
       </c>
       <c r="R25">
-        <v>426.8836992902372</v>
+        <v>2578.297773439076</v>
       </c>
       <c r="S25">
-        <v>0.007181480084526386</v>
+        <v>0.006643688435014583</v>
       </c>
       <c r="T25">
-        <v>0.007181480084526386</v>
+        <v>0.005952535257414559</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.03993611426126</v>
+        <v>4.242306999999999</v>
       </c>
       <c r="H26">
-        <v>3.03993611426126</v>
+        <v>12.726921</v>
       </c>
       <c r="I26">
-        <v>0.03552276215648836</v>
+        <v>0.04651233350775901</v>
       </c>
       <c r="J26">
-        <v>0.03552276215648836</v>
+        <v>0.05356375686797306</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N26">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O26">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P26">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q26">
-        <v>500.2887885179304</v>
+        <v>698.1873066830434</v>
       </c>
       <c r="R26">
-        <v>500.2887885179304</v>
+        <v>4189.12384009826</v>
       </c>
       <c r="S26">
-        <v>0.008416376585067503</v>
+        <v>0.0107944217677316</v>
       </c>
       <c r="T26">
-        <v>0.008416376585067503</v>
+        <v>0.009671461385392996</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>3.03993611426126</v>
+        <v>4.242306999999999</v>
       </c>
       <c r="H27">
-        <v>3.03993611426126</v>
+        <v>12.726921</v>
       </c>
       <c r="I27">
-        <v>0.03552276215648836</v>
+        <v>0.04651233350775901</v>
       </c>
       <c r="J27">
-        <v>0.03552276215648836</v>
+        <v>0.05356375686797306</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P27">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q27">
-        <v>338.5615819927323</v>
+        <v>503.8347400246959</v>
       </c>
       <c r="R27">
-        <v>338.5615819927323</v>
+        <v>4534.512660222264</v>
       </c>
       <c r="S27">
-        <v>0.005695633875243074</v>
+        <v>0.00778960693356022</v>
       </c>
       <c r="T27">
-        <v>0.005695633875243074</v>
+        <v>0.01046886312482149</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>3.03993611426126</v>
+        <v>4.242306999999999</v>
       </c>
       <c r="H28">
-        <v>3.03993611426126</v>
+        <v>12.726921</v>
       </c>
       <c r="I28">
-        <v>0.03552276215648836</v>
+        <v>0.04651233350775901</v>
       </c>
       <c r="J28">
-        <v>0.03552276215648836</v>
+        <v>0.05356375686797306</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N28">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O28">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P28">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q28">
-        <v>255.420451172002</v>
+        <v>358.610512904799</v>
       </c>
       <c r="R28">
-        <v>255.420451172002</v>
+        <v>3227.494616143191</v>
       </c>
       <c r="S28">
-        <v>0.004296947590930011</v>
+        <v>0.00554434761214339</v>
       </c>
       <c r="T28">
-        <v>0.004296947590930011</v>
+        <v>0.007451340839534714</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>3.03993611426126</v>
+        <v>4.242306999999999</v>
       </c>
       <c r="H29">
-        <v>3.03993611426126</v>
+        <v>12.726921</v>
       </c>
       <c r="I29">
-        <v>0.03552276215648836</v>
+        <v>0.04651233350775901</v>
       </c>
       <c r="J29">
-        <v>0.03552276215648836</v>
+        <v>0.05356375686797306</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N29">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O29">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P29">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q29">
-        <v>240.1588975587919</v>
+        <v>337.8390946304116</v>
       </c>
       <c r="R29">
-        <v>240.1588975587919</v>
+        <v>3040.551851673705</v>
       </c>
       <c r="S29">
-        <v>0.004040201916371746</v>
+        <v>0.005223208216709649</v>
       </c>
       <c r="T29">
-        <v>0.004040201916371746</v>
+        <v>0.007019744687962638</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>3.03993611426126</v>
+        <v>4.242306999999999</v>
       </c>
       <c r="H30">
-        <v>3.03993611426126</v>
+        <v>12.726921</v>
       </c>
       <c r="I30">
-        <v>0.03552276215648836</v>
+        <v>0.04651233350775901</v>
       </c>
       <c r="J30">
-        <v>0.03552276215648836</v>
+        <v>0.05356375686797306</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N30">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O30">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P30">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q30">
-        <v>352.8598457021612</v>
+        <v>516.4299628461879</v>
       </c>
       <c r="R30">
-        <v>352.8598457021612</v>
+        <v>4647.869665615691</v>
       </c>
       <c r="S30">
-        <v>0.005936174088522</v>
+        <v>0.007984337124287482</v>
       </c>
       <c r="T30">
-        <v>0.005936174088522</v>
+        <v>0.01073057128678421</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>3.03993611426126</v>
+        <v>4.242306999999999</v>
       </c>
       <c r="H31">
-        <v>3.03993611426126</v>
+        <v>12.726921</v>
       </c>
       <c r="I31">
-        <v>0.03552276215648836</v>
+        <v>0.04651233350775901</v>
       </c>
       <c r="J31">
-        <v>0.03552276215648836</v>
+        <v>0.05356375686797306</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N31">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O31">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P31">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q31">
-        <v>424.265147996738</v>
+        <v>593.5338098462014</v>
       </c>
       <c r="R31">
-        <v>424.265147996738</v>
+        <v>3561.202859077209</v>
       </c>
       <c r="S31">
-        <v>0.007137428100354016</v>
+        <v>0.009176411853326676</v>
       </c>
       <c r="T31">
-        <v>0.007137428100354016</v>
+        <v>0.008221775543477007</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>33.0989211689013</v>
+        <v>34.28457450000001</v>
       </c>
       <c r="H32">
-        <v>33.0989211689013</v>
+        <v>68.56914900000001</v>
       </c>
       <c r="I32">
-        <v>0.386772964998629</v>
+        <v>0.3758934851522086</v>
       </c>
       <c r="J32">
-        <v>0.386772964998629</v>
+        <v>0.2885867858910901</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N32">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O32">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P32">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q32">
-        <v>5447.160252860823</v>
+        <v>5642.461691463903</v>
       </c>
       <c r="R32">
-        <v>5447.160252860823</v>
+        <v>22569.84676585561</v>
       </c>
       <c r="S32">
-        <v>0.09163777613946091</v>
+        <v>0.08723606218979812</v>
       </c>
       <c r="T32">
-        <v>0.09163777613946091</v>
+        <v>0.05210717319473884</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>33.0989211689013</v>
+        <v>34.28457450000001</v>
       </c>
       <c r="H33">
-        <v>33.0989211689013</v>
+        <v>68.56914900000001</v>
       </c>
       <c r="I33">
-        <v>0.386772964998629</v>
+        <v>0.3758934851522086</v>
       </c>
       <c r="J33">
-        <v>0.386772964998629</v>
+        <v>0.2885867858910901</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P33">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q33">
-        <v>3686.26928066847</v>
+        <v>4071.784451258437</v>
       </c>
       <c r="R33">
-        <v>3686.26928066847</v>
+        <v>24430.70670755062</v>
       </c>
       <c r="S33">
-        <v>0.062014242917538</v>
+        <v>0.06295238869779154</v>
       </c>
       <c r="T33">
-        <v>0.062014242917538</v>
+        <v>0.0564033543907824</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>33.0989211689013</v>
+        <v>34.28457450000001</v>
       </c>
       <c r="H34">
-        <v>33.0989211689013</v>
+        <v>68.56914900000001</v>
       </c>
       <c r="I34">
-        <v>0.386772964998629</v>
+        <v>0.3758934851522086</v>
       </c>
       <c r="J34">
-        <v>0.386772964998629</v>
+        <v>0.2885867858910901</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N34">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O34">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P34">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q34">
-        <v>2781.026002028912</v>
+        <v>2898.142177397297</v>
       </c>
       <c r="R34">
-        <v>2781.026002028912</v>
+        <v>17388.85306438378</v>
       </c>
       <c r="S34">
-        <v>0.04678530213575063</v>
+        <v>0.0448071294138843</v>
       </c>
       <c r="T34">
-        <v>0.04678530213575063</v>
+        <v>0.04014577447882649</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>33.0989211689013</v>
+        <v>34.28457450000001</v>
       </c>
       <c r="H35">
-        <v>33.0989211689013</v>
+        <v>68.56914900000001</v>
       </c>
       <c r="I35">
-        <v>0.386772964998629</v>
+        <v>0.3758934851522086</v>
       </c>
       <c r="J35">
-        <v>0.386772964998629</v>
+        <v>0.2885867858910901</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N35">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O35">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P35">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q35">
-        <v>2614.857720534827</v>
+        <v>2730.276146650608</v>
       </c>
       <c r="R35">
-        <v>2614.857720534827</v>
+        <v>16381.65687990365</v>
       </c>
       <c r="S35">
-        <v>0.04398984705931211</v>
+        <v>0.04221181334467169</v>
       </c>
       <c r="T35">
-        <v>0.04398984705931211</v>
+        <v>0.03782045315209143</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>33.0989211689013</v>
+        <v>34.28457450000001</v>
       </c>
       <c r="H36">
-        <v>33.0989211689013</v>
+        <v>68.56914900000001</v>
       </c>
       <c r="I36">
-        <v>0.386772964998629</v>
+        <v>0.3758934851522086</v>
       </c>
       <c r="J36">
-        <v>0.386772964998629</v>
+        <v>0.2885867858910901</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N36">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O36">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P36">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q36">
-        <v>3841.949231030044</v>
+        <v>4173.573844427658</v>
       </c>
       <c r="R36">
-        <v>3841.949231030044</v>
+        <v>25041.44306656595</v>
       </c>
       <c r="S36">
-        <v>0.06463325241577038</v>
+        <v>0.06452611773988776</v>
       </c>
       <c r="T36">
-        <v>0.06463325241577038</v>
+        <v>0.05781336596798459</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>33.0989211689013</v>
+        <v>34.28457450000001</v>
       </c>
       <c r="H37">
-        <v>33.0989211689013</v>
+        <v>68.56914900000001</v>
       </c>
       <c r="I37">
-        <v>0.386772964998629</v>
+        <v>0.3758934851522086</v>
       </c>
       <c r="J37">
-        <v>0.386772964998629</v>
+        <v>0.2885867858910901</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N37">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O37">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P37">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q37">
-        <v>4619.412435142183</v>
+        <v>4796.695317415956</v>
       </c>
       <c r="R37">
-        <v>4619.412435142183</v>
+        <v>19186.78126966382</v>
       </c>
       <c r="S37">
-        <v>0.07771254433079687</v>
+        <v>0.07415997376617524</v>
       </c>
       <c r="T37">
-        <v>0.07771254433079687</v>
+        <v>0.04429666470666636</v>
       </c>
     </row>
   </sheetData>
